--- a/ThreeGenderGroupingMatrixThinking.xlsx
+++ b/ThreeGenderGroupingMatrixThinking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edynivn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B2CB9-F54B-43C4-AC8C-7433503FF368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B15E035-E642-4D0F-A062-414368C460D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>x2,g3</t>
   </si>
   <si>
-    <t>F,S</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -180,7 +177,10 @@
     </r>
   </si>
   <si>
-    <t>Thinking about three gender-grouping Leslie matrix elements and components</t>
+    <t>F,S,M</t>
+  </si>
+  <si>
+    <t>Thinking about three gender-grouping Leslie matrix elements and element components</t>
   </si>
 </sst>
 </file>
@@ -1322,13 +1322,13 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="19">
         <v>0</v>
@@ -1399,7 +1399,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="93">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="16"/>
@@ -1466,13 +1466,13 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="47">
         <v>0</v>
@@ -1541,7 +1541,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="56">
         <v>0</v>
@@ -1589,7 +1589,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1608,13 +1608,13 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="95" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H10" s="62">
         <v>0</v>
@@ -1637,7 +1637,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="76">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="87">
         <v>0</v>
